--- a/doc/Plannings.xlsx
+++ b/doc/Plannings.xlsx
@@ -91,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dddd\,\ dd/\ mmmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="dddd\,\ dd/\ mmmm\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -153,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -187,28 +187,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:BB28"/>
+  <dimension ref="A1:BB28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:AR28"/>
+    <sheetView view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,136 +548,376 @@
     <col min="2" max="54" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:54" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+    <row r="1" spans="1:54" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
         <v>41729</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C1" s="4">
         <v>41730</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D1" s="4">
         <v>41731</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E1" s="4">
         <v>41732</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F1" s="4">
         <v>41733</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G1" s="4">
         <v>41736</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H1" s="4">
         <v>41737</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I1" s="4">
         <v>41738</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J1" s="4">
         <v>41739</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K1" s="4">
         <v>41740</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L1" s="4">
         <v>41743</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M1" s="4">
         <v>41744</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N1" s="4">
         <v>41745</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O1" s="4">
         <v>41746</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P1" s="4">
         <v>41747</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q1" s="4">
         <v>41750</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R1" s="4">
         <v>41751</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S1" s="4">
         <v>41752</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T1" s="4">
         <v>41753</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U1" s="4">
         <v>41754</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V1" s="4">
         <v>41757</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W1" s="4">
         <v>41758</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X1" s="4">
         <v>41759</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y1" s="4">
         <v>41760</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z1" s="4">
         <v>41761</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA1" s="4">
         <v>41764</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB1" s="4">
         <v>41765</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC1" s="4">
         <v>41766</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD1" s="4">
         <v>41767</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE1" s="4">
         <v>41768</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF1" s="4">
         <v>41771</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG1" s="4">
         <v>41772</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH1" s="4">
         <v>41773</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AI1" s="4">
         <v>41774</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AJ1" s="4">
         <v>41775</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AK1" s="4">
         <v>41778</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AL1" s="4">
         <v>41779</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AM1" s="4">
         <v>41780</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AN1" s="4">
         <v>41781</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AO1" s="4">
         <v>41782</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AP1" s="4">
         <v>41785</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AQ1" s="4">
         <v>41786</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AR1" s="4">
         <v>41787</v>
       </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+    </row>
+    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
       <c r="AS6" s="8"/>
       <c r="AT6" s="8"/>
       <c r="AU6" s="8"/>
@@ -666,32 +931,32 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -723,33 +988,33 @@
       <c r="BB7" s="7"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -782,32 +1047,32 @@
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -840,32 +1105,32 @@
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -897,8 +1162,8 @@
       <c r="BB10" s="7"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
+      <c r="A11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -906,24 +1171,24 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -956,7 +1221,7 @@
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -964,24 +1229,24 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -1013,8 +1278,8 @@
       <c r="BB12" s="7"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1023,35 +1288,35 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
@@ -1072,7 +1337,7 @@
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1082,22 +1347,22 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -1130,7 +1395,7 @@
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1141,21 +1406,21 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="2"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -1188,7 +1453,7 @@
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1199,21 +1464,21 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="2"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -1246,7 +1511,7 @@
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1257,25 +1522,25 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
@@ -1303,8 +1568,8 @@
       <c r="BB17" s="7"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1315,33 +1580,33 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
@@ -1362,7 +1627,7 @@
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1373,21 +1638,21 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="Y19" s="11"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -1395,11 +1660,11 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
@@ -1419,8 +1684,8 @@
       <c r="BB19" s="7"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
+      <c r="A20" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1431,21 +1696,21 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -1458,13 +1723,13 @@
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
@@ -1477,8 +1742,8 @@
       <c r="BB20" s="7"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
+      <c r="A21" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1489,21 +1754,21 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="11"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -1516,13 +1781,13 @@
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
@@ -1535,8 +1800,8 @@
       <c r="BB21" s="7"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
+      <c r="A22" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1547,25 +1812,25 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
@@ -1574,13 +1839,13 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="6"/>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
@@ -1594,51 +1859,51 @@
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
@@ -1651,52 +1916,21 @@
       <c r="BB23" s="7"/>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
       <c r="AS24" s="7"/>
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
@@ -1709,52 +1943,6 @@
       <c r="BB24" s="7"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
       <c r="AS25" s="7"/>
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
@@ -1767,52 +1955,6 @@
       <c r="BB25" s="7"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
-      <c r="AR26" s="2"/>
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
@@ -1825,52 +1967,6 @@
       <c r="BB26" s="7"/>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
-      <c r="AR27" s="6"/>
       <c r="AS27" s="7"/>
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
@@ -1883,52 +1979,6 @@
       <c r="BB27" s="7"/>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
       <c r="AS28" s="7"/>
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
@@ -1942,16 +1992,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CPalnning prévu</oddHeader>
+    <oddFooter>&amp;CSimon Menetrey - WebradioManager</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:AR28"/>
+  <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR27" sqref="AP27:AR27"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,142 +2014,334 @@
     <col min="2" max="44" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:44" ht="108.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+    <row r="1" spans="1:44" ht="130.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
         <v>41729</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C1" s="4">
         <v>41730</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D1" s="4">
         <v>41731</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E1" s="4">
         <v>41732</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F1" s="4">
         <v>41733</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G1" s="4">
         <v>41736</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H1" s="4">
         <v>41737</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I1" s="4">
         <v>41738</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J1" s="4">
         <v>41739</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K1" s="4">
         <v>41740</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L1" s="4">
         <v>41743</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M1" s="4">
         <v>41744</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N1" s="4">
         <v>41745</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O1" s="4">
         <v>41746</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P1" s="4">
         <v>41747</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q1" s="4">
         <v>41750</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R1" s="4">
         <v>41751</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S1" s="4">
         <v>41752</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T1" s="4">
         <v>41753</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U1" s="4">
         <v>41754</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V1" s="4">
         <v>41757</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W1" s="4">
         <v>41758</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X1" s="4">
         <v>41759</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y1" s="4">
         <v>41760</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z1" s="4">
         <v>41761</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA1" s="4">
         <v>41764</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB1" s="4">
         <v>41765</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC1" s="4">
         <v>41766</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD1" s="4">
         <v>41767</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE1" s="4">
         <v>41768</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF1" s="4">
         <v>41771</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG1" s="4">
         <v>41772</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH1" s="4">
         <v>41773</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI1" s="4">
         <v>41774</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AJ1" s="4">
         <v>41775</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AK1" s="4">
         <v>41778</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AL1" s="4">
         <v>41779</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AM1" s="4">
         <v>41780</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AN1" s="4">
         <v>41781</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AO1" s="4">
         <v>41782</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AP1" s="4">
         <v>41785</v>
       </c>
-      <c r="AQ5" s="4">
+      <c r="AQ1" s="4">
         <v>41786</v>
       </c>
-      <c r="AR5" s="4">
+      <c r="AR1" s="4">
         <v>41787</v>
       </c>
     </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+    </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2140,18 +2386,18 @@
       <c r="AR6" s="6"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="11"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -2174,10 +2420,10 @@
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
+      <c r="AG7" s="2"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
@@ -2189,14 +2435,14 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2217,7 +2463,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
+      <c r="AB8" s="2"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
@@ -2237,12 +2483,12 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2251,7 +2497,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -2259,9 +2505,9 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="6"/>
+      <c r="V9" s="2"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
+      <c r="X9" s="2"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2284,8 +2530,8 @@
       <c r="AR9" s="6"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2295,10 +2541,10 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -2321,10 +2567,10 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
+      <c r="AJ10" s="2"/>
       <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
       <c r="AP10" s="6"/>
@@ -2333,20 +2579,20 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="11"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="6"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -2356,20 +2602,20 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
-      <c r="AG11" s="2"/>
+      <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
-      <c r="AJ11" s="2"/>
+      <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
@@ -2381,14 +2627,14 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2408,14 +2654,14 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
@@ -2429,7 +2675,7 @@
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2443,7 +2689,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -2451,22 +2697,22 @@
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="2"/>
+      <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="2"/>
+      <c r="X13" s="6"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
+      <c r="AK13" s="2"/>
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
@@ -2476,8 +2722,8 @@
       <c r="AR13" s="6"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
+      <c r="A14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2487,10 +2733,10 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -2513,10 +2759,10 @@
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="2"/>
+      <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
       <c r="AO14" s="6"/>
       <c r="AP14" s="6"/>
@@ -2525,7 +2771,7 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2534,10 +2780,10 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -2548,11 +2794,11 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
       <c r="Y15" s="11"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
@@ -2561,10 +2807,10 @@
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
+      <c r="AJ15" s="2"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
       <c r="AN15" s="6"/>
       <c r="AO15" s="6"/>
       <c r="AP15" s="6"/>
@@ -2573,7 +2819,7 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2587,7 +2833,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="N16" s="2"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -2595,20 +2841,20 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="6"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="2"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
@@ -2621,7 +2867,7 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2643,22 +2889,22 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
-      <c r="AH17" s="2"/>
+      <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
-      <c r="AK17" s="2"/>
+      <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
@@ -2668,8 +2914,8 @@
       <c r="AR17" s="6"/>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
+      <c r="A18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2682,7 +2928,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="11"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="6"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
@@ -2693,10 +2939,10 @@
       <c r="U18" s="11"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
+      <c r="X18" s="2"/>
       <c r="Y18" s="11"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
@@ -2717,7 +2963,7 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2726,11 +2972,11 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
@@ -2744,19 +2990,19 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
       <c r="AO19" s="6"/>
       <c r="AP19" s="6"/>
@@ -2765,7 +3011,7 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2779,7 +3025,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="2"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -2787,22 +3033,22 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
+      <c r="AC20" s="2"/>
       <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
+      <c r="AK20" s="2"/>
       <c r="AL20" s="6"/>
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
@@ -2812,8 +3058,8 @@
       <c r="AR20" s="6"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
+      <c r="A21" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2835,14 +3081,14 @@
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
-      <c r="AC21" s="2"/>
+      <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
@@ -2860,8 +3106,8 @@
       <c r="AR21" s="6"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
+      <c r="A22" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2874,7 +3120,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="11"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="2"/>
+      <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -2885,10 +3131,10 @@
       <c r="U22" s="11"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="2"/>
+      <c r="X22" s="6"/>
       <c r="Y22" s="11"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
@@ -2902,14 +3148,14 @@
       <c r="AL22" s="6"/>
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="6"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
+      <c r="A23" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2936,42 +3182,42 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="6"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
-      <c r="AI23" s="2"/>
+      <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
       <c r="AL23" s="6"/>
       <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -2979,223 +3225,36 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
       <c r="Y24" s="11"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="6"/>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="6"/>
+      <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
-      <c r="AQ25" s="6"/>
-      <c r="AR25" s="6"/>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="6"/>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
-      <c r="AR27" s="2"/>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CPlanning réel</oddHeader>
+    <oddFooter>&amp;CSimon Menetrey - WebradioManager</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>